--- a/Assets/Resources/Data/ClassList.xlsx
+++ b/Assets/Resources/Data/ClassList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -65,62 +65,84 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ガンナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソルジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナイパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーシャル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェネラル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーセナリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォーリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーターヘッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプテン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>レンジャー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガンナー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スナイパー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソルジャー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戦車</t>
-    <rPh sb="0" eb="2">
-      <t>センシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャリ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>plain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>desert</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盗賊</t>
-    <rPh sb="0" eb="2">
-      <t>トウゾク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -506,14 +528,16 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="11" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="4" width="1.5" customWidth="1"/>
+    <col min="5" max="11" width="5.625" customWidth="1"/>
     <col min="12" max="12" width="5.125" style="8" customWidth="1"/>
     <col min="13" max="13" width="6.125" style="10" customWidth="1"/>
     <col min="14" max="14" width="4.875" style="11" customWidth="1"/>
@@ -556,19 +580,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -579,31 +603,31 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="7">
         <v>1</v>
@@ -626,34 +650,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <v>1</v>
@@ -676,31 +700,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -726,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -776,28 +800,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -826,34 +850,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7">
         <v>1</v>
@@ -876,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -885,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -903,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
         <v>1</v>
@@ -926,34 +950,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="7">
         <v>1</v>
@@ -985,25 +1009,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
         <v>1</v>
@@ -1022,130 +1046,354 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="3"/>
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="3"/>
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="3"/>
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="3"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="3"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="3"/>
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="3"/>
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -1159,11 +1407,21 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="3"/>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -1177,11 +1435,21 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="3"/>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/Data/ClassList.xlsx
+++ b/Assets/Resources/Data/ClassList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>ロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -528,7 +532,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C18" sqref="C18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1396,17 +1400,39 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
       <c r="L18" s="7">
         <v>0</v>
       </c>
@@ -1424,17 +1450,39 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
       <c r="L19" s="7">
         <v>0</v>
       </c>

--- a/Assets/Resources/Data/ClassList.xlsx
+++ b/Assets/Resources/Data/ClassList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -73,23 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>plain</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>desert</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スナイパー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -147,6 +130,30 @@
   </si>
   <si>
     <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rifle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>knife</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>axe</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -154,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +176,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -231,24 +252,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -529,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:K19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -542,14 +724,15 @@
     <col min="3" max="3" width="5.625" customWidth="1"/>
     <col min="4" max="4" width="1.5" customWidth="1"/>
     <col min="5" max="11" width="5.625" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="6.125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="4.875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="6" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="4.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="4" style="4" customWidth="1"/>
+    <col min="16" max="16" width="6.875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,44 +745,47 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,31 +816,34 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2" s="12">
-        <v>3</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -680,31 +869,34 @@
       <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="12">
-        <v>3</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -730,31 +922,34 @@
       <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1</v>
-      </c>
-      <c r="N4" s="12">
-        <v>3</v>
-      </c>
-      <c r="O4" s="5">
-        <v>3</v>
-      </c>
-      <c r="P4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -780,31 +975,34 @@
       <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12">
-        <v>3</v>
-      </c>
-      <c r="O5" s="5">
-        <v>3</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K5" s="12">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -830,31 +1028,34 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1</v>
-      </c>
-      <c r="N6" s="12">
-        <v>3</v>
-      </c>
-      <c r="O6" s="5">
-        <v>3</v>
-      </c>
-      <c r="P6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -880,26 +1081,29 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9">
-        <v>2</v>
-      </c>
-      <c r="N7" s="12">
-        <v>2</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2</v>
-      </c>
-      <c r="P7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -930,31 +1134,34 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
-        <v>2</v>
-      </c>
-      <c r="N8" s="12">
-        <v>99</v>
-      </c>
-      <c r="O8" s="5">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -980,31 +1187,34 @@
       <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="9">
-        <v>2</v>
-      </c>
-      <c r="N9" s="12">
-        <v>99</v>
-      </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1030,31 +1240,34 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9">
-        <v>2</v>
-      </c>
-      <c r="N10" s="12">
-        <v>99</v>
-      </c>
-      <c r="O10" s="5">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -1080,31 +1293,34 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1130,31 +1346,34 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -1180,31 +1399,34 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1230,31 +1452,34 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1280,31 +1505,34 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1330,31 +1558,34 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1380,31 +1611,34 @@
       <c r="J17" s="1">
         <v>5</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K17" s="12">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1430,31 +1664,34 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1480,22 +1717,25 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="22">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Data/ClassList.xlsx
+++ b/Assets/Resources/Data/ClassList.xlsx
@@ -714,7 +714,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="18">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="18">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="18">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" s="18">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="18">
         <v>1</v>

--- a/Assets/Resources/Data/ClassList.xlsx
+++ b/Assets/Resources/Data/ClassList.xlsx
@@ -714,7 +714,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
